--- a/data/trans_camb/P57_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P57_R2-Edad-trans_camb.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>22.50384451376698</v>
+        <v>22.50384451376696</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>14.28591283135692</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18.63322777896639</v>
+        <v>18.63322777896637</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>13.17728336701435</v>
+        <v>12.97891574077428</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.388102115875206</v>
+        <v>5.71633700779697</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11.75072647613202</v>
+        <v>12.4219254910092</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>30.88715212194719</v>
+        <v>30.74500355440744</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>23.27213863319811</v>
+        <v>23.46701661370102</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>24.82291941641454</v>
+        <v>24.87995280679879</v>
       </c>
     </row>
     <row r="7">
@@ -615,13 +615,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>0.5185648648494902</v>
+        <v>0.5185648648494896</v>
       </c>
       <c r="D7" s="6" t="n">
         <v>0.3273371743950514</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.4281970307179743</v>
+        <v>0.4281970307179738</v>
       </c>
     </row>
     <row r="8">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.2787186221035842</v>
+        <v>0.2787639623840265</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.1294648366779187</v>
+        <v>0.1222370661256732</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.2581507237087589</v>
+        <v>0.2679637725000645</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.7606117842234611</v>
+        <v>0.7695596303015387</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.560028101825124</v>
+        <v>0.5749168785345806</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.6050378775635663</v>
+        <v>0.5916002383343615</v>
       </c>
     </row>
     <row r="10">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>12.88228516981857</v>
+        <v>13.12324774698273</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>12.98970025501686</v>
+        <v>12.00567015682912</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>15.13712887491815</v>
+        <v>15.01081479068283</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>26.87817478574458</v>
+        <v>27.65030120367936</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>24.59825185295268</v>
+        <v>24.58327143998562</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>24.33969313682912</v>
+        <v>24.32746022985059</v>
       </c>
     </row>
     <row r="13">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.3517871473587197</v>
+        <v>0.3636507429177216</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.3390572243700654</v>
+        <v>0.3153792595209976</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.4203261426927923</v>
+        <v>0.4164600951330659</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.8724129088345751</v>
+        <v>0.892329284942306</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.7511076003937331</v>
+        <v>0.7558313593332443</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.7505290615943906</v>
+        <v>0.7469769287611303</v>
       </c>
     </row>
     <row r="16">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>11.23334497225453</v>
+        <v>11.02961934691401</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>14.5148010260746</v>
+        <v>14.89099953052378</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>14.10469540005955</v>
+        <v>14.57739103056061</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>22.44138181277255</v>
+        <v>22.51036776245766</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>24.68282247670718</v>
+        <v>24.57394324870607</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>21.88737728445164</v>
+        <v>22.12771319561541</v>
       </c>
     </row>
     <row r="19">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.3062300308169949</v>
+        <v>0.3039339364113661</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.4364864966663182</v>
+        <v>0.4463981538158305</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.4089966473469679</v>
+        <v>0.4269100808501708</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.7261273538994807</v>
+        <v>0.7313971758073158</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.8788508215765093</v>
+        <v>0.8811777851929063</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.7280466606284814</v>
+        <v>0.7256935453435048</v>
       </c>
     </row>
     <row r="22">
@@ -882,13 +882,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>19.00884478083467</v>
+        <v>19.00884478083466</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>16.23708377330005</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>17.55240054519812</v>
+        <v>17.55240054519811</v>
       </c>
     </row>
     <row r="23">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>14.20637029832376</v>
+        <v>14.0361625579999</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>11.79601143490611</v>
+        <v>11.91465733596085</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>14.28278285592885</v>
+        <v>14.13591605771026</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>24.05589003417398</v>
+        <v>24.93764452057367</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>20.74871508093411</v>
+        <v>20.54327110573268</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>21.03370277895741</v>
+        <v>20.79886000630781</v>
       </c>
     </row>
     <row r="25">
@@ -933,13 +933,13 @@
         </is>
       </c>
       <c r="C25" s="6" t="n">
-        <v>0.7138234574499186</v>
+        <v>0.7138234574499184</v>
       </c>
       <c r="D25" s="6" t="n">
         <v>0.7256244399003379</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.716475190349511</v>
+        <v>0.7164751903495108</v>
       </c>
     </row>
     <row r="26">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.4828866090571238</v>
+        <v>0.4612570436876685</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.4641289236441621</v>
+        <v>0.4749007764161957</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.536936518209905</v>
+        <v>0.5387184869564459</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.019866473058275</v>
+        <v>1.046116886696352</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.060243949589481</v>
+        <v>1.063695216803004</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.9343878251573962</v>
+        <v>0.9227527600075774</v>
       </c>
     </row>
     <row r="28">
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>3.381623973644087</v>
+        <v>4.497356046685208</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>6.836664435506755</v>
+        <v>7.080985891427155</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>7.113411380379799</v>
+        <v>6.615357790493896</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>14.26519692568237</v>
+        <v>15.37703015012137</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>16.4646654922817</v>
+        <v>16.32980803118798</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>14.50442483828224</v>
+        <v>14.06220226058293</v>
       </c>
     </row>
     <row r="31">
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.1153608629897021</v>
+        <v>0.1546786933280813</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.2876752090321816</v>
+        <v>0.3053401736506995</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.2808708041410352</v>
+        <v>0.2595392885091382</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.6285009574636204</v>
+        <v>0.6511396850824532</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.9773260696892763</v>
+        <v>0.989063766890004</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.7083027193682947</v>
+        <v>0.6801916375756329</v>
       </c>
     </row>
     <row r="34">
@@ -1094,7 +1094,7 @@
         </is>
       </c>
       <c r="C34" s="5" t="n">
-        <v>15.55179773872184</v>
+        <v>15.55179773872183</v>
       </c>
       <c r="D34" s="5" t="n">
         <v>17.1946276700859</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>9.312841426084709</v>
+        <v>8.484310655808706</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>11.97329843896724</v>
+        <v>12.34026651227651</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>12.28111169873529</v>
+        <v>12.23380283402805</v>
       </c>
     </row>
     <row r="36">
@@ -1128,13 +1128,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>21.9274058416033</v>
+        <v>20.98717421990252</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>21.73440346572189</v>
+        <v>22.25641606917076</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>20.67368505997485</v>
+        <v>20.06244480942328</v>
       </c>
     </row>
     <row r="37">
@@ -1145,7 +1145,7 @@
         </is>
       </c>
       <c r="C37" s="6" t="n">
-        <v>0.6303455407435733</v>
+        <v>0.6303455407435731</v>
       </c>
       <c r="D37" s="6" t="n">
         <v>1.040216019376176</v>
@@ -1162,13 +1162,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.3294957438255927</v>
+        <v>0.3011136844619844</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.616132243032406</v>
+        <v>0.6062985192498946</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.5196972544747093</v>
+        <v>0.5279962693836394</v>
       </c>
     </row>
     <row r="39">
@@ -1179,13 +1179,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.061779680569073</v>
+        <v>0.99673077994821</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.594605855188899</v>
+        <v>1.676759135015225</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1.168391363000475</v>
+        <v>1.120471045654464</v>
       </c>
     </row>
     <row r="40">
@@ -1203,10 +1203,10 @@
         <v>14.01801187806559</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>12.42621035411331</v>
+        <v>12.4262103541133</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>13.11847178072582</v>
+        <v>13.11847178072584</v>
       </c>
     </row>
     <row r="41">
@@ -1217,13 +1217,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>7.33490894938286</v>
+        <v>7.128991348791082</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>7.027643790680036</v>
+        <v>6.762209254616596</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>8.935966687111774</v>
+        <v>8.786908749239366</v>
       </c>
     </row>
     <row r="42">
@@ -1234,13 +1234,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>20.23219156437193</v>
+        <v>19.86709360773375</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>17.06144694868289</v>
+        <v>17.16340244875796</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>16.98765639875074</v>
+        <v>16.82980823034899</v>
       </c>
     </row>
     <row r="43">
@@ -1254,10 +1254,10 @@
         <v>0.7508670224845342</v>
       </c>
       <c r="D43" s="6" t="n">
-        <v>0.9461494127793175</v>
+        <v>0.9461494127793171</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.8568299833456147</v>
+        <v>0.8568299833456153</v>
       </c>
     </row>
     <row r="44">
@@ -1268,13 +1268,13 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.3029757697111633</v>
+        <v>0.2940428337224605</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.4297829275065232</v>
+        <v>0.3837921415667781</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.4889209338368418</v>
+        <v>0.48769016313128</v>
       </c>
     </row>
     <row r="45">
@@ -1285,13 +1285,13 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.266295806595713</v>
+        <v>1.250611656392715</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.754191139164696</v>
+        <v>1.686259544928571</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.295907906935032</v>
+        <v>1.306772387839401</v>
       </c>
     </row>
     <row r="46">
@@ -1306,7 +1306,7 @@
         </is>
       </c>
       <c r="C46" s="5" t="n">
-        <v>16.05347422088062</v>
+        <v>16.0534742208806</v>
       </c>
       <c r="D46" s="5" t="n">
         <v>14.91511825600026</v>
@@ -1323,13 +1323,13 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>13.44133970799707</v>
+        <v>13.61512081200165</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>12.65741325714289</v>
+        <v>12.77395667452096</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>13.9347202233823</v>
+        <v>13.82358547539439</v>
       </c>
     </row>
     <row r="48">
@@ -1340,13 +1340,13 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>18.78356593257003</v>
+        <v>18.67452703176223</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>16.97272169684705</v>
+        <v>17.02303437018982</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>17.0613116743374</v>
+        <v>17.11422100267681</v>
       </c>
     </row>
     <row r="49">
@@ -1357,7 +1357,7 @@
         </is>
       </c>
       <c r="C49" s="6" t="n">
-        <v>0.5288705587664612</v>
+        <v>0.5288705587664608</v>
       </c>
       <c r="D49" s="6" t="n">
         <v>0.5666071980854613</v>
@@ -1374,13 +1374,13 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.4289205510725951</v>
+        <v>0.4357582958855894</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.4621851561032079</v>
+        <v>0.4625904696264023</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.4791128949666152</v>
+        <v>0.4726990176495687</v>
       </c>
     </row>
     <row r="51">
@@ -1391,13 +1391,13 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.644000853028837</v>
+        <v>0.6422250460749444</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.6686215131641751</v>
+        <v>0.6722390420619333</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.6204193855467639</v>
+        <v>0.6236056541259014</v>
       </c>
     </row>
     <row r="52">
